--- a/output/1Y_P99_1VAL-D.xlsx
+++ b/output/1Y_P99_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>18.0221</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>554.8742999999999</v>
       </c>
-      <c r="G2" s="1">
-        <v>554.8742999999999</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1193</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.0221</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1193</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>18.2846</v>
       </c>
+      <c r="E3" s="1">
+        <v>554.8742999999999</v>
+      </c>
       <c r="F3" s="1">
         <v>546.9083000000001</v>
       </c>
-      <c r="G3" s="1">
-        <v>1101.7826</v>
-      </c>
       <c r="H3" s="1">
-        <v>20041.2055</v>
+        <v>10093.0524</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.1524</v>
+        <v>10093.0524</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.0221</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20041.2055</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0047</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>16.485</v>
       </c>
+      <c r="E4" s="1">
+        <v>1101.7826</v>
+      </c>
       <c r="F4" s="1">
         <v>606.6121000000001</v>
       </c>
-      <c r="G4" s="1">
-        <v>1708.3947</v>
-      </c>
       <c r="H4" s="1">
-        <v>28016.9896</v>
+        <v>18068.7943</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.5603</v>
+        <v>18068.7943</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>18.1524</v>
+      </c>
+      <c r="M4" s="1">
         <v>1.538</v>
       </c>
-      <c r="L4" s="1">
-        <v>1525.0875</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-8474.9125</v>
+        <v>768.057</v>
       </c>
       <c r="O4" s="1">
-        <v>1525.0875</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29542.0771</v>
+        <v>-9231.942999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0166</v>
+        <v>-0.1007</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>16.9765</v>
       </c>
+      <c r="E5" s="1">
+        <v>1708.3947</v>
+      </c>
       <c r="F5" s="1">
-        <v>599.0313</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2307.426</v>
+        <v>594.0765</v>
       </c>
       <c r="H5" s="1">
-        <v>38968.7324</v>
+        <v>28852.0529</v>
       </c>
       <c r="I5" s="1">
-        <v>40169.4542</v>
+        <v>768.057</v>
       </c>
       <c r="J5" s="1">
-        <v>17.4088</v>
+        <v>29620.1099</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30085.3397</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.6103</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10169.4542</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>1355.6333</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40324.3658</v>
+        <v>-10085.3397</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0198</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.414</v>
       </c>
+      <c r="E6" s="1">
+        <v>2302.4712</v>
+      </c>
       <c r="F6" s="1">
-        <v>583.9815</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2891.4075</v>
+        <v>579.1512</v>
       </c>
       <c r="H6" s="1">
-        <v>50089.8756</v>
+        <v>39887.3202</v>
       </c>
       <c r="I6" s="1">
-        <v>50338.9083</v>
+        <v>682.7173</v>
       </c>
       <c r="J6" s="1">
-        <v>17.4098</v>
+        <v>40570.0375</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40170.6793</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.4468</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10169.4542</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1186.1792</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>51276.0548</v>
+        <v>-10085.3397</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0189</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>18.2974</v>
       </c>
+      <c r="E7" s="1">
+        <v>2881.6224</v>
+      </c>
       <c r="F7" s="1">
-        <v>555.7868</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3447.1943</v>
+        <v>551.1898</v>
       </c>
       <c r="H7" s="1">
-        <v>62747.5545</v>
+        <v>52452.7323</v>
       </c>
       <c r="I7" s="1">
-        <v>60508.3625</v>
+        <v>597.3777</v>
       </c>
       <c r="J7" s="1">
-        <v>17.5529</v>
+        <v>53050.1099</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50256.019</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.4402</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10169.4542</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1016.725</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>63764.2795</v>
+        <v>-10085.3397</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0406</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.699</v>
       </c>
+      <c r="E8" s="1">
+        <v>3432.8122</v>
+      </c>
       <c r="F8" s="1">
-        <v>574.5779</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4021.7722</v>
+        <v>569.8253999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>70812.1476</v>
+        <v>60442.2109</v>
       </c>
       <c r="I8" s="1">
-        <v>70677.8167</v>
+        <v>512.038</v>
       </c>
       <c r="J8" s="1">
-        <v>17.5738</v>
+        <v>60954.2489</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60341.3587</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.5778</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10169.4542</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>847.2708</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>71659.4184</v>
+        <v>-10085.3397</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0285</v>
+        <v>-0.0332</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>18.0595</v>
       </c>
+      <c r="E9" s="1">
+        <v>4002.6376</v>
+      </c>
       <c r="F9" s="1">
-        <v>563.1083</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4584.8805</v>
+        <v>558.4507</v>
       </c>
       <c r="H9" s="1">
-        <v>82371.046</v>
+        <v>71910.5864</v>
       </c>
       <c r="I9" s="1">
-        <v>80847.2708</v>
+        <v>426.6983</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6335</v>
+        <v>72337.28479999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70426.6983</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.5951</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10169.4542</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>677.8167</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>83048.8627</v>
+        <v>-10085.3397</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.017</v>
+        <v>0.0195</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>18.696</v>
       </c>
+      <c r="E10" s="1">
+        <v>4561.0883</v>
+      </c>
       <c r="F10" s="1">
-        <v>543.9374</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5128.8179</v>
+        <v>539.4384</v>
       </c>
       <c r="H10" s="1">
-        <v>95391.39750000001</v>
+        <v>84832.13649999999</v>
       </c>
       <c r="I10" s="1">
-        <v>91016.72500000001</v>
+        <v>341.3587</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7461</v>
+        <v>85173.4951</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80512.038</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6519</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10169.4542</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>508.3625</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>95899.75999999999</v>
+        <v>-10085.3397</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0306</v>
+        <v>0.0344</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.8704</v>
       </c>
+      <c r="E11" s="1">
+        <v>5100.5266</v>
+      </c>
       <c r="F11" s="1">
-        <v>569.067</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5697.8849</v>
+        <v>564.36</v>
       </c>
       <c r="H11" s="1">
-        <v>101295.2881</v>
+        <v>90675.632</v>
       </c>
       <c r="I11" s="1">
-        <v>101186.1792</v>
+        <v>256.019</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7586</v>
+        <v>90931.651</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90597.3777</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.7624</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10169.4542</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>338.9083</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>101634.1964</v>
+        <v>-10085.3397</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0403</v>
+        <v>-0.0446</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.5604</v>
       </c>
+      <c r="E12" s="1">
+        <v>5664.8867</v>
+      </c>
       <c r="F12" s="1">
-        <v>579.1129</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6276.9978</v>
+        <v>574.3229</v>
       </c>
       <c r="H12" s="1">
-        <v>109655.3851</v>
+        <v>98962.1709</v>
       </c>
       <c r="I12" s="1">
-        <v>111355.6333</v>
+        <v>170.6793</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7403</v>
+        <v>99132.85030000001</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100682.7173</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.7731</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10169.4542</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>169.4542</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>109824.8393</v>
+        <v>-10085.3397</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0162</v>
+        <v>-0.0178</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.4279</v>
       </c>
+      <c r="E13" s="1">
+        <v>6239.2095</v>
+      </c>
       <c r="F13" s="1">
-        <v>583.5158</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6860.5135</v>
+        <v>578.6893</v>
       </c>
       <c r="H13" s="1">
-        <v>118944.1534</v>
+        <v>108172.2955</v>
       </c>
       <c r="I13" s="1">
-        <v>121525.0875</v>
+        <v>85.33969999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7137</v>
+        <v>108257.6351</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110768.057</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7535</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10169.4542</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>118944.1534</v>
+        <v>-10085.3397</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0073</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.5932</v>
       </c>
+      <c r="E14" s="1">
+        <v>6817.8989</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6860.5135</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6239.2095</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119326.866</v>
       </c>
       <c r="I14" s="1">
-        <v>121525.0875</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7137</v>
+        <v>119326.866</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110768.057</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2467</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>120072.7079</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>120072.7079</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120072.7079</v>
+        <v>109198.6454</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0688</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>18.0221</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>554.8742999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1193</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.0221</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1193</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>18.2846</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>554.8742999999999</v>
       </c>
       <c r="F3" s="1">
         <v>544.643</v>
       </c>
       <c r="G3" s="1">
-        <v>1099.5173</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10093.0524</v>
       </c>
       <c r="I3" s="1">
-        <v>19958.5797</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.1521</v>
+        <v>10093.0524</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9958.5797</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.9475</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9958.5797</v>
       </c>
-      <c r="O3" s="1">
-        <v>41.4203</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20041.4203</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0047</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>16.485</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1099.5173</v>
       </c>
       <c r="F4" s="1">
         <v>609.1247</v>
       </c>
       <c r="G4" s="1">
-        <v>1708.642</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>28021.0451</v>
+        <v>18031.6441</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>41.4203</v>
       </c>
       <c r="J4" s="1">
-        <v>17.5578</v>
+        <v>18073.0644</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>18.1898</v>
+      </c>
+      <c r="M4" s="1">
         <v>1.538</v>
       </c>
-      <c r="L4" s="1">
-        <v>1521.9519</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-8519.4684</v>
+        <v>768.057</v>
       </c>
       <c r="O4" s="1">
-        <v>1521.9519</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29542.997</v>
+        <v>-9273.363300000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0166</v>
+        <v>-0.1005</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>16.9765</v>
       </c>
       <c r="E5" s="1">
+        <v>1708.642</v>
+      </c>
+      <c r="F5" s="1">
+        <v>634.2919000000001</v>
+      </c>
+      <c r="G5" s="1">
         <v>40000</v>
       </c>
-      <c r="F5" s="1">
-        <v>659.8476000000001</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2368.4896</v>
-      </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>28856.2293</v>
       </c>
       <c r="I5" s="1">
-        <v>41201.9033</v>
+        <v>768.057</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3959</v>
+        <v>29624.2863</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30768.057</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.0073</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-11201.9033</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>320.0486</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40320.0486</v>
+        <v>-10768.057</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0197</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.414</v>
       </c>
       <c r="E6" s="1">
+        <v>2342.9339</v>
+      </c>
+      <c r="F6" s="1">
+        <v>543.2855</v>
+      </c>
+      <c r="G6" s="1">
         <v>50000</v>
       </c>
-      <c r="F6" s="1">
-        <v>517.7298</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2886.2195</v>
-      </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>40588.2843</v>
       </c>
       <c r="I6" s="1">
-        <v>50217.6507</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.3991</v>
+        <v>40588.2843</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40228.8313</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.1703</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-9015.747499999999</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1304.3011</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>51304.3011</v>
+        <v>-9460.774299999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0196</v>
+        <v>0.0243</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>18.2974</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2886.2195</v>
       </c>
       <c r="F7" s="1">
         <v>410.0311</v>
       </c>
       <c r="G7" s="1">
-        <v>3296.2505</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>52536.4097</v>
       </c>
       <c r="I7" s="1">
-        <v>57720.153</v>
+        <v>539.2257</v>
       </c>
       <c r="J7" s="1">
-        <v>17.5109</v>
+        <v>53075.6353</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47731.3336</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.5377</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7502.5023</v>
       </c>
-      <c r="O7" s="1">
-        <v>3801.7988</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63801.7988</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0407</v>
+        <v>0.0492</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.699</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3296.2505</v>
       </c>
       <c r="F8" s="1">
         <v>679.3958</v>
       </c>
       <c r="G8" s="1">
-        <v>3975.6463</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>58037.7421</v>
       </c>
       <c r="I8" s="1">
-        <v>69744.7795</v>
+        <v>3036.7234</v>
       </c>
       <c r="J8" s="1">
-        <v>17.543</v>
+        <v>61074.4654</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59755.9601</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.1285</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-12024.6265</v>
       </c>
-      <c r="O8" s="1">
-        <v>1777.1724</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71777.1724</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0274</v>
+        <v>-0.0317</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>18.0595</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3975.6463</v>
       </c>
       <c r="F9" s="1">
         <v>477.2586</v>
       </c>
       <c r="G9" s="1">
-        <v>4452.905</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>71425.66680000001</v>
       </c>
       <c r="I9" s="1">
-        <v>78363.8318</v>
+        <v>1012.0969</v>
       </c>
       <c r="J9" s="1">
-        <v>17.5984</v>
+        <v>72437.7637</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68375.0125</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.1985</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8619.0524</v>
       </c>
-      <c r="O9" s="1">
-        <v>3158.12</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83158.12</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0169</v>
+        <v>0.0192</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>18.696</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4452.905</v>
       </c>
       <c r="F10" s="1">
         <v>386.0389</v>
       </c>
       <c r="G10" s="1">
-        <v>4838.9438</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>82820.02469999999</v>
       </c>
       <c r="I10" s="1">
-        <v>85581.21430000001</v>
+        <v>2393.0445</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6859</v>
+        <v>85213.0692</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>75592.3949</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.976</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7217.3825</v>
       </c>
-      <c r="O10" s="1">
-        <v>5940.7376</v>
-      </c>
-      <c r="P10" s="1">
-        <v>95940.73759999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0299</v>
+        <v>0.0337</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.8704</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>4838.9438</v>
       </c>
       <c r="F11" s="1">
         <v>786.0808</v>
       </c>
       <c r="G11" s="1">
-        <v>5625.0246</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>86025.29150000001</v>
       </c>
       <c r="I11" s="1">
-        <v>99628.79240000001</v>
+        <v>5175.6621</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7117</v>
+        <v>91200.95359999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>89639.9731</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.5247</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-14047.5781</v>
       </c>
-      <c r="O11" s="1">
-        <v>1893.1594</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101893.1594</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0382</v>
+        <v>-0.0421</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.5604</v>
       </c>
       <c r="E12" s="1">
+        <v>5625.0246</v>
+      </c>
+      <c r="F12" s="1">
+        <v>633.7033</v>
+      </c>
+      <c r="G12" s="1">
         <v>110000</v>
       </c>
-      <c r="F12" s="1">
-        <v>671.6999</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6296.7246</v>
-      </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>98265.8049</v>
       </c>
       <c r="I12" s="1">
-        <v>111424.1122</v>
+        <v>1128.0839</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6956</v>
+        <v>99393.88890000001</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100768.057</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.9142</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-11795.3198</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>97.8396</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>110097.8396</v>
+        <v>-11128.0839</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.016</v>
+        <v>-0.0179</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.4279</v>
       </c>
       <c r="E13" s="1">
+        <v>6258.7279</v>
+      </c>
+      <c r="F13" s="1">
+        <v>573.7926</v>
+      </c>
+      <c r="G13" s="1">
         <v>120000</v>
       </c>
-      <c r="F13" s="1">
-        <v>579.4066</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6876.1311</v>
-      </c>
       <c r="H13" s="1">
-        <v>119214.9233</v>
+        <v>108510.6956</v>
       </c>
       <c r="I13" s="1">
-        <v>121521.9519</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.673</v>
+        <v>108510.6956</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110768.057</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6982</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10097.8396</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>119214.9233</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0074</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>17.5932</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6832.5205</v>
       </c>
       <c r="F14" s="1">
-        <v>-6876.1311</v>
+        <v>-6832.5205</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119582.7744</v>
       </c>
       <c r="I14" s="1">
-        <v>121521.9519</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.673</v>
+        <v>119582.7744</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110768.057</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2119</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>120346.0469</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>120346.0469</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120346.0469</v>
+        <v>119582.7744</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.06859999999999999</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>18.0221</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>554.8742999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1193</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.0221</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1193</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>18.2846</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>554.8742999999999</v>
       </c>
       <c r="F3" s="1">
         <v>547.3918</v>
       </c>
       <c r="G3" s="1">
-        <v>1102.2661</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10093.0524</v>
       </c>
       <c r="I3" s="1">
-        <v>20008.8403</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.1525</v>
+        <v>10093.0524</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10008.8403</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.038</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10008.8403</v>
       </c>
-      <c r="O3" s="1">
-        <v>-8.840299999999999</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20041.1597</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0047</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>16.485</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1102.2661</v>
       </c>
       <c r="F4" s="1">
         <v>606.0758</v>
       </c>
       <c r="G4" s="1">
-        <v>1708.3419</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>28016.124</v>
+        <v>18076.7232</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>-8.840299999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>17.5609</v>
+        <v>18067.8829</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>18.1444</v>
+      </c>
+      <c r="M4" s="1">
         <v>1.538</v>
       </c>
-      <c r="L4" s="1">
-        <v>1525.7567</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-8465.402899999999</v>
+        <v>768.057</v>
       </c>
       <c r="O4" s="1">
-        <v>1525.7567</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29541.8808</v>
+        <v>-9223.102699999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0166</v>
+        <v>-0.1008</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>16.9765</v>
       </c>
       <c r="E5" s="1">
+        <v>1708.3419</v>
+      </c>
+      <c r="F5" s="1">
+        <v>634.2919000000001</v>
+      </c>
+      <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
-      <c r="F5" s="1">
-        <v>677.9707</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2386.3126</v>
-      </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>28851.1615</v>
       </c>
       <c r="I5" s="1">
-        <v>41509.5689</v>
+        <v>768.057</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3949</v>
+        <v>29619.2185</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30768.057</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.0105</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-11509.5689</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>16.1878</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40317.1891</v>
+        <v>-10768.057</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0196</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.414</v>
       </c>
       <c r="E6" s="1">
+        <v>2342.6338</v>
+      </c>
+      <c r="F6" s="1">
+        <v>572.5925</v>
+      </c>
+      <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
-      <c r="F6" s="1">
-        <v>528.9138</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2915.2263</v>
-      </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>40583.0859</v>
       </c>
       <c r="I6" s="1">
-        <v>50720.073</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.3983</v>
+        <v>40583.0859</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40739.1824</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.3903</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-9210.5041</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>805.6838</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>51308.19</v>
+        <v>-9971.125400000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0197</v>
+        <v>0.0243</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>18.2974</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2915.2263</v>
       </c>
       <c r="F7" s="1">
         <v>422.503</v>
       </c>
       <c r="G7" s="1">
-        <v>3337.7294</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>53064.4071</v>
       </c>
       <c r="I7" s="1">
-        <v>58450.7802</v>
+        <v>28.8746</v>
       </c>
       <c r="J7" s="1">
-        <v>17.5121</v>
+        <v>53093.2817</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48469.8896</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.6265</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7730.7072</v>
       </c>
-      <c r="O7" s="1">
-        <v>3074.9766</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63829.9954</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0411</v>
+        <v>0.0496</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.699</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3337.7294</v>
       </c>
       <c r="F8" s="1">
         <v>698.0511</v>
       </c>
       <c r="G8" s="1">
-        <v>4035.7805</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>58768.0685</v>
       </c>
       <c r="I8" s="1">
-        <v>70805.5866</v>
+        <v>2298.1674</v>
       </c>
       <c r="J8" s="1">
-        <v>17.5445</v>
+        <v>61066.2359</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60824.6961</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.2234</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-12354.8065</v>
       </c>
-      <c r="O8" s="1">
-        <v>720.1701</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71778.96400000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0278</v>
+        <v>-0.0321</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>18.0595</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4035.7805</v>
       </c>
       <c r="F9" s="1">
         <v>495.8345</v>
       </c>
       <c r="G9" s="1">
-        <v>4531.6149</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>72506.0248</v>
       </c>
       <c r="I9" s="1">
-        <v>79760.1094</v>
+        <v>-56.6391</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6008</v>
+        <v>72449.3857</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69779.21890000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.2901</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8954.522800000001</v>
       </c>
-      <c r="O9" s="1">
-        <v>1765.6473</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83179.7352</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0171</v>
+        <v>0.0195</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>18.696</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4531.6149</v>
       </c>
       <c r="F10" s="1">
         <v>405.2453</v>
       </c>
       <c r="G10" s="1">
-        <v>4936.8603</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>84283.9596</v>
       </c>
       <c r="I10" s="1">
-        <v>87336.57640000001</v>
+        <v>988.8381000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6907</v>
+        <v>85272.7977</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>77355.68580000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.0702</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7576.467</v>
       </c>
-      <c r="O10" s="1">
-        <v>4189.1804</v>
-      </c>
-      <c r="P10" s="1">
-        <v>96010.33869999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0304</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.8704</v>
       </c>
       <c r="E11" s="1">
+        <v>4936.8603</v>
+      </c>
+      <c r="F11" s="1">
+        <v>750.5356</v>
+      </c>
+      <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
-      <c r="F11" s="1">
-        <v>794.0046</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5730.8649</v>
-      </c>
       <c r="H11" s="1">
-        <v>101881.5974</v>
+        <v>87766.0212</v>
       </c>
       <c r="I11" s="1">
-        <v>101525.7567</v>
+        <v>3412.3712</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7156</v>
+        <v>91178.3924</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90768.057</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.3858</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-14189.1804</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>101881.5974</v>
+        <v>-13412.3712</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0389</v>
+        <v>-0.043</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.5604</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5687.3959</v>
       </c>
       <c r="F12" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>6300.328</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>110062.9506</v>
+        <v>99355.3936</v>
       </c>
       <c r="I12" s="1">
-        <v>111525.7567</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7016</v>
+        <v>99355.3936</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100768.057</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.7178</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>110062.9506</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0163</v>
+        <v>-0.018</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.4279</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6256.859</v>
       </c>
       <c r="F13" s="1">
         <v>573.7926</v>
       </c>
       <c r="G13" s="1">
-        <v>6874.1206</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>119180.0665</v>
+        <v>108478.2928</v>
       </c>
       <c r="I13" s="1">
-        <v>121525.7567</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6787</v>
+        <v>108478.2928</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110768.057</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7035</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>119180.0665</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0074</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>17.5932</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6830.6516</v>
       </c>
       <c r="F14" s="1">
-        <v>-6874.1206</v>
+        <v>-6830.6516</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119550.0641</v>
       </c>
       <c r="I14" s="1">
-        <v>121525.7567</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6787</v>
+        <v>119550.0641</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110768.057</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2163</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>120310.8593</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>120310.8593</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120310.8593</v>
+        <v>119550.0641</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0687</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>18.0221</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>554.8742999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1193</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.0221</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1193</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>18.2846</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>554.8742999999999</v>
       </c>
       <c r="F3" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1101.7826</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20041.2055</v>
+        <v>10093.0524</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.1524</v>
+        <v>10093.0524</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.0221</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20041.2055</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0047</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>16.485</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1101.7826</v>
       </c>
       <c r="F4" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1708.3947</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>28016.9896</v>
+        <v>18068.7943</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.5603</v>
+        <v>18068.7943</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>18.1524</v>
+      </c>
+      <c r="M4" s="1">
         <v>1.538</v>
       </c>
-      <c r="L4" s="1">
-        <v>1525.0875</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-8474.9125</v>
+        <v>768.057</v>
       </c>
       <c r="O4" s="1">
-        <v>1525.0875</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29542.0771</v>
+        <v>-9231.942999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0166</v>
+        <v>-0.1007</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>16.9765</v>
       </c>
       <c r="E5" s="1">
+        <v>1708.3947</v>
+      </c>
+      <c r="F5" s="1">
+        <v>634.2919000000001</v>
+      </c>
+      <c r="G5" s="1">
         <v>40604.01</v>
       </c>
-      <c r="F5" s="1">
-        <v>678.8848</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2387.2795</v>
-      </c>
       <c r="H5" s="1">
-        <v>40317.3307</v>
+        <v>28852.0529</v>
       </c>
       <c r="I5" s="1">
-        <v>41525.0875</v>
+        <v>768.057</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3943</v>
+        <v>29620.1099</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30768.057</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.0099</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-11525.0875</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40317.3307</v>
+        <v>-10768.057</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0196</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.414</v>
       </c>
       <c r="E6" s="1">
+        <v>2342.6866</v>
+      </c>
+      <c r="F6" s="1">
+        <v>574.2506</v>
+      </c>
+      <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
-      <c r="F6" s="1">
-        <v>557.2445</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2944.524</v>
-      </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>40584.0003</v>
       </c>
       <c r="I6" s="1">
-        <v>51228.9434</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.398</v>
+        <v>40584.0003</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40768.057</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.4023</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-9703.8559</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>296.1441</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>51306.1942</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0197</v>
+        <v>0.0243</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>18.2974</v>
       </c>
       <c r="E7" s="1">
+        <v>2916.9372</v>
+      </c>
+      <c r="F7" s="1">
+        <v>462.8266</v>
+      </c>
+      <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
-      <c r="F7" s="1">
-        <v>435.2398</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3379.7638</v>
-      </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>53095.5499</v>
       </c>
       <c r="I7" s="1">
-        <v>59192.7004</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.5139</v>
+        <v>53095.5499</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49236.58</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.8795</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-7963.7571</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>2332.3871</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>63852.5377</v>
+        <v>-8468.522999999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0415</v>
+        <v>0.0497</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.699</v>
       </c>
       <c r="E8" s="1">
+        <v>3379.7638</v>
+      </c>
+      <c r="F8" s="1">
+        <v>651.5327</v>
+      </c>
+      <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
-      <c r="F8" s="1">
-        <v>696.7844</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4076.5482</v>
-      </c>
       <c r="H8" s="1">
-        <v>71776.5995</v>
+        <v>59508.1772</v>
       </c>
       <c r="I8" s="1">
-        <v>71525.08749999999</v>
+        <v>1531.477</v>
       </c>
       <c r="J8" s="1">
-        <v>17.5455</v>
+        <v>61039.6543</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60768.057</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.98</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-12332.3871</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>71776.5995</v>
+        <v>-11531.477</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0281</v>
+        <v>-0.0326</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>18.0595</v>
       </c>
       <c r="E9" s="1">
+        <v>4031.2965</v>
+      </c>
+      <c r="F9" s="1">
+        <v>553.7252</v>
+      </c>
+      <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
-      <c r="F9" s="1">
-        <v>535.3647</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4611.9129</v>
-      </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>72425.46649999999</v>
       </c>
       <c r="I9" s="1">
-        <v>81193.50719999999</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6052</v>
+        <v>72425.46649999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70768.057</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.5547</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-9668.4197</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>331.5803</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>83188.28599999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0173</v>
+        <v>0.0195</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>18.696</v>
       </c>
       <c r="E10" s="1">
+        <v>4585.0217</v>
+      </c>
+      <c r="F10" s="1">
+        <v>452.0647</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>425.1734</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5037.0863</v>
-      </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>85277.2767</v>
       </c>
       <c r="I10" s="1">
-        <v>89142.549</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6972</v>
+        <v>85277.2767</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>79219.8581</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.278</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-7949.0419</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>2382.5385</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>96067.81110000001</v>
+        <v>-8451.801100000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0309</v>
+        <v>0.0346</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.8704</v>
       </c>
       <c r="E11" s="1">
+        <v>5037.0863</v>
+      </c>
+      <c r="F11" s="1">
+        <v>646.2194</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>692.9077</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5729.9941</v>
-      </c>
       <c r="H11" s="1">
-        <v>101866.1159</v>
+        <v>89547.81</v>
       </c>
       <c r="I11" s="1">
-        <v>101525.0875</v>
+        <v>1548.1989</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7182</v>
+        <v>91096.0089</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90768.057</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.02</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-12382.5385</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>101866.1159</v>
+        <v>-11548.1989</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0396</v>
+        <v>-0.0439</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.5604</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5683.3057</v>
       </c>
       <c r="F12" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>6299.4572</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>110047.7375</v>
+        <v>99283.9412</v>
       </c>
       <c r="I12" s="1">
-        <v>111525.0875</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7039</v>
+        <v>99283.9412</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100768.057</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.7305</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>110047.7375</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0163</v>
+        <v>-0.0179</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.4279</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6252.7688</v>
       </c>
       <c r="F13" s="1">
         <v>573.7926</v>
       </c>
       <c r="G13" s="1">
-        <v>6873.2498</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>119164.9683</v>
+        <v>108407.3798</v>
       </c>
       <c r="I13" s="1">
-        <v>121525.0875</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6809</v>
+        <v>108407.3798</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110768.057</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.715</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>119164.9683</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0074</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>17.5932</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6826.5614</v>
       </c>
       <c r="F14" s="1">
-        <v>-6873.2498</v>
+        <v>-6826.5614</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119478.4783</v>
       </c>
       <c r="I14" s="1">
-        <v>121525.0875</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6809</v>
+        <v>119478.4783</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110768.057</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.226</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>120295.6179</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>120295.6179</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120295.6179</v>
+        <v>119478.4783</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0687</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>18.0221</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>554.8742999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1193</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.0221</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1193</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>18.2846</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>554.8742999999999</v>
       </c>
       <c r="F3" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1101.7826</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20041.2055</v>
+        <v>10093.0524</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.1524</v>
+        <v>10093.0524</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.0221</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20041.2055</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0047</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>16.485</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1101.7826</v>
       </c>
       <c r="F4" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1708.3947</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>28016.9896</v>
+        <v>18068.7943</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.5603</v>
+        <v>18068.7943</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>18.1524</v>
+      </c>
+      <c r="M4" s="1">
         <v>1.538</v>
       </c>
-      <c r="L4" s="1">
-        <v>1525.0875</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-8474.9125</v>
+        <v>768.057</v>
       </c>
       <c r="O4" s="1">
-        <v>1525.0875</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29542.0771</v>
+        <v>-9231.942999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0166</v>
+        <v>-0.1007</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>16.9765</v>
       </c>
       <c r="E5" s="1">
+        <v>1708.3947</v>
+      </c>
+      <c r="F5" s="1">
+        <v>634.2919000000001</v>
+      </c>
+      <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
-      <c r="F5" s="1">
-        <v>678.8848</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2387.2795</v>
-      </c>
       <c r="H5" s="1">
-        <v>40317.3307</v>
+        <v>28852.0529</v>
       </c>
       <c r="I5" s="1">
-        <v>41525.0875</v>
+        <v>768.057</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3943</v>
+        <v>29620.1099</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30768.057</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.0099</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-11525.0875</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40317.3307</v>
+        <v>-10768.057</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0196</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.414</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2342.6866</v>
       </c>
       <c r="F6" s="1">
         <v>574.2506</v>
       </c>
       <c r="G6" s="1">
-        <v>2961.5301</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51304.6586</v>
+        <v>40584.0003</v>
       </c>
       <c r="I6" s="1">
-        <v>51525.0875</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.3981</v>
+        <v>40584.0003</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40768.057</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.4023</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51304.6586</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0196</v>
+        <v>0.0243</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>18.2974</v>
       </c>
       <c r="E7" s="1">
+        <v>2916.9372</v>
+      </c>
+      <c r="F7" s="1">
+        <v>505.4228</v>
+      </c>
+      <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
-      <c r="F7" s="1">
-        <v>460.83</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3422.3601</v>
-      </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>53095.5499</v>
       </c>
       <c r="I7" s="1">
-        <v>59957.0783</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.5192</v>
+        <v>53095.5499</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50015.981</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.1467</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-8431.9908</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1568.0092</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>63863.5185</v>
+        <v>-9247.924000000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0417</v>
+        <v>0.0497</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.699</v>
       </c>
       <c r="E8" s="1">
+        <v>3422.3601</v>
+      </c>
+      <c r="F8" s="1">
+        <v>607.4962</v>
+      </c>
+      <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
-      <c r="F8" s="1">
-        <v>653.5968</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4075.9568</v>
-      </c>
       <c r="H8" s="1">
-        <v>71766.18730000001</v>
+        <v>60258.1783</v>
       </c>
       <c r="I8" s="1">
-        <v>71525.08749999999</v>
+        <v>752.076</v>
       </c>
       <c r="J8" s="1">
-        <v>17.548</v>
+        <v>61010.2543</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60768.057</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.7562</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-11568.0092</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>71766.18730000001</v>
+        <v>-10752.076</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0284</v>
+        <v>-0.033</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>18.0595</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4029.8563</v>
       </c>
       <c r="F9" s="1">
         <v>553.7252</v>
       </c>
       <c r="G9" s="1">
-        <v>4629.682</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>83175.9414</v>
+        <v>72399.5926</v>
       </c>
       <c r="I9" s="1">
-        <v>81525.08749999999</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6092</v>
+        <v>72399.5926</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70768.057</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.5609</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83175.9414</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0172</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>18.696</v>
       </c>
       <c r="E10" s="1">
+        <v>4583.5815</v>
+      </c>
+      <c r="F10" s="1">
+        <v>534.8738</v>
+      </c>
+      <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
-      <c r="F10" s="1">
-        <v>509.9923</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5139.6743</v>
-      </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>85250.49069999999</v>
       </c>
       <c r="I10" s="1">
-        <v>91059.9037</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7171</v>
+        <v>85250.49069999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80768.057</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6212</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-9534.816199999999</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>465.1838</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>96058.50079999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0309</v>
+        <v>0.0346</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.8704</v>
       </c>
       <c r="E11" s="1">
+        <v>5118.4553</v>
+      </c>
+      <c r="F11" s="1">
+        <v>559.5846</v>
+      </c>
+      <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
-      <c r="F11" s="1">
-        <v>585.6155</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5725.2899</v>
-      </c>
       <c r="H11" s="1">
-        <v>101782.4857</v>
+        <v>90994.36229999999</v>
       </c>
       <c r="I11" s="1">
-        <v>101525.0875</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7327</v>
+        <v>90994.36229999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90768.057</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.7335</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10465.1838</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>101782.4857</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0403</v>
+        <v>-0.0447</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.5604</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5678.0398</v>
       </c>
       <c r="F12" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>6294.753</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>109965.5577</v>
+        <v>99191.9491</v>
       </c>
       <c r="I12" s="1">
-        <v>111525.0875</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7172</v>
+        <v>99191.9491</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100768.057</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.747</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>109965.5577</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0163</v>
+        <v>-0.0178</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.4279</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6247.5029</v>
       </c>
       <c r="F13" s="1">
         <v>573.7926</v>
       </c>
       <c r="G13" s="1">
-        <v>6868.5456</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>119083.4089</v>
+        <v>108316.0824</v>
       </c>
       <c r="I13" s="1">
-        <v>121525.0875</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.693</v>
+        <v>108316.0824</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110768.057</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.73</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>119083.4089</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0074</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>17.5932</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6821.2955</v>
       </c>
       <c r="F14" s="1">
-        <v>-6868.5456</v>
+        <v>-6821.2955</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119386.3146</v>
       </c>
       <c r="I14" s="1">
-        <v>121525.0875</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.693</v>
+        <v>119386.3146</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110768.057</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2386</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>120213.2847</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>120213.2847</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120213.2847</v>
+        <v>119386.3146</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0687</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4477,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.5458</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.7137</v>
+        <v>16.2467</v>
       </c>
       <c r="D3" s="1">
-        <v>17.673</v>
+        <v>16.2119</v>
       </c>
       <c r="E3" s="1">
-        <v>17.6787</v>
+        <v>16.2163</v>
       </c>
       <c r="F3" s="1">
-        <v>17.6809</v>
+        <v>16.226</v>
       </c>
       <c r="G3" s="1">
-        <v>17.693</v>
+        <v>16.2386</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.0142</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0462</v>
+        <v>-0.0038</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0429</v>
+        <v>-0.0004</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.043</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.043</v>
+        <v>-0.0015</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0438</v>
+        <v>-0.0026</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1383</v>
       </c>
       <c r="C5" s="3">
-        <v>0.106</v>
+        <v>0.1463</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1048</v>
+        <v>0.1449</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1056</v>
+        <v>0.1458</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1062</v>
+        <v>0.1462</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1067</v>
+        <v>0.1466</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.2496</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.6273</v>
+        <v>-0.1651</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.6031</v>
+        <v>-0.1428</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.5999</v>
+        <v>-0.1439</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.596</v>
+        <v>-0.1489</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.6016</v>
+        <v>-0.1563</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0011</v>
+        <v>-0.1626</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0055</v>
+        <v>-0.0065</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0049</v>
+        <v>-0.007</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0046</v>
+        <v>-0.0081</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0033</v>
+        <v>-0.0094</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1525.0875</v>
+        <v>768.057</v>
       </c>
       <c r="D8" s="1">
-        <v>1521.9519</v>
+        <v>768.057</v>
       </c>
       <c r="E8" s="1">
-        <v>1525.7567</v>
+        <v>768.057</v>
       </c>
       <c r="F8" s="1">
-        <v>1525.0875</v>
+        <v>768.057</v>
       </c>
       <c r="G8" s="1">
-        <v>1525.0875</v>
+        <v>768.057</v>
       </c>
     </row>
   </sheetData>
